--- a/July'21/14.07.2021/Bank Statement_1626027173_1626103642.xlsx
+++ b/July'21/14.07.2021/Bank Statement_1626027173_1626103642.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -1044,13 +1044,13 @@
     <t>13.07.2021</t>
   </si>
   <si>
-    <t>Date :14-07-2021</t>
-  </si>
-  <si>
     <t>14.07.2021</t>
   </si>
   <si>
     <t>Date:14.07.2021</t>
+  </si>
+  <si>
+    <t>Date :15-07-2021</t>
   </si>
 </sst>
 </file>
@@ -3251,12 +3251,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3273,51 +3318,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4115,70 +4115,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="334" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
-      <c r="P1" s="342"/>
-      <c r="Q1" s="342"/>
-      <c r="R1" s="342"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
+      <c r="Q1" s="334"/>
+      <c r="R1" s="334"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="335" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
-      <c r="H2" s="343"/>
-      <c r="I2" s="343"/>
-      <c r="J2" s="343"/>
-      <c r="K2" s="343"/>
-      <c r="L2" s="343"/>
-      <c r="M2" s="343"/>
-      <c r="N2" s="343"/>
-      <c r="O2" s="343"/>
-      <c r="P2" s="343"/>
-      <c r="Q2" s="343"/>
-      <c r="R2" s="343"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335"/>
+      <c r="R2" s="335"/>
     </row>
     <row r="3" spans="1:25" s="91" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="344" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="351"/>
-      <c r="J3" s="351"/>
-      <c r="K3" s="351"/>
-      <c r="L3" s="351"/>
-      <c r="M3" s="351"/>
-      <c r="N3" s="351"/>
-      <c r="O3" s="351"/>
-      <c r="P3" s="351"/>
-      <c r="Q3" s="351"/>
-      <c r="R3" s="352"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="345"/>
+      <c r="R3" s="346"/>
       <c r="T3" s="92"/>
       <c r="U3" s="93"/>
       <c r="V3" s="93"/>
@@ -4187,55 +4187,55 @@
       <c r="Y3" s="94"/>
     </row>
     <row r="4" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="336" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="346" t="s">
+      <c r="B4" s="338" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="346" t="s">
+      <c r="C4" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="340" t="s">
+      <c r="D4" s="332" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="332" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="340" t="s">
+      <c r="F4" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="340" t="s">
+      <c r="G4" s="332" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="340" t="s">
+      <c r="H4" s="332" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="340" t="s">
+      <c r="I4" s="332" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="340" t="s">
+      <c r="J4" s="332" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="353" t="s">
+      <c r="K4" s="347" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="332" t="s">
+      <c r="L4" s="340" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="334" t="s">
+      <c r="M4" s="349" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="336" t="s">
+      <c r="N4" s="351" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="338" t="s">
+      <c r="O4" s="353" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="332" t="s">
+      <c r="P4" s="340" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="348" t="s">
+      <c r="Q4" s="342" t="s">
         <v>123</v>
       </c>
       <c r="R4" s="284" t="s">
@@ -4248,23 +4248,23 @@
       <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:25" s="94" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="345"/>
-      <c r="B5" s="347"/>
-      <c r="C5" s="347"/>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="341"/>
-      <c r="G5" s="341"/>
-      <c r="H5" s="341"/>
-      <c r="I5" s="341"/>
-      <c r="J5" s="341"/>
-      <c r="K5" s="354"/>
-      <c r="L5" s="333"/>
-      <c r="M5" s="335"/>
-      <c r="N5" s="337"/>
-      <c r="O5" s="339"/>
-      <c r="P5" s="333"/>
-      <c r="Q5" s="349"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="348"/>
+      <c r="L5" s="341"/>
+      <c r="M5" s="350"/>
+      <c r="N5" s="352"/>
+      <c r="O5" s="354"/>
+      <c r="P5" s="341"/>
+      <c r="Q5" s="343"/>
       <c r="R5" s="285" t="s">
         <v>32</v>
       </c>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="17" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="293" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="297"/>
       <c r="C17" s="298"/>
@@ -7238,6 +7238,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7250,14 +7258,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="47">
         <v>300000</v>
@@ -9265,8 +9265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9316,7 +9316,7 @@
     </row>
     <row r="4" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="362" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="363"/>
       <c r="D4" s="363"/>
@@ -9817,9 +9817,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="5" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="387" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B5" s="388"/>
       <c r="C5" s="164"/>
@@ -10201,14 +10201,10 @@
       </c>
       <c r="D12" s="126"/>
       <c r="E12" s="122"/>
-      <c r="F12" s="139">
-        <v>500</v>
-      </c>
-      <c r="G12" s="139">
-        <v>1000</v>
-      </c>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="143">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I12" s="139"/>
       <c r="J12" s="143"/>
@@ -10216,11 +10212,9 @@
       <c r="L12" s="139"/>
       <c r="M12" s="140"/>
       <c r="N12" s="141">
-        <v>80</v>
-      </c>
-      <c r="O12" s="141">
-        <v>5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="O12" s="141"/>
       <c r="P12" s="141"/>
       <c r="Q12" s="146"/>
       <c r="T12" s="159" t="s">
@@ -10309,7 +10303,7 @@
         <v>64</v>
       </c>
       <c r="O14" s="141">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P14" s="141">
         <v>15</v>
@@ -10796,15 +10790,15 @@
       </c>
       <c r="F29" s="172">
         <f t="shared" si="0"/>
-        <v>2260</v>
+        <v>1760</v>
       </c>
       <c r="G29" s="172">
         <f t="shared" si="0"/>
-        <v>2690</v>
+        <v>1690</v>
       </c>
       <c r="H29" s="172">
         <f t="shared" si="0"/>
-        <v>3050</v>
+        <v>2450</v>
       </c>
       <c r="I29" s="172">
         <f t="shared" si="0"/>
@@ -10828,11 +10822,11 @@
       </c>
       <c r="N29" s="172">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="O29" s="172">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P29" s="172">
         <f t="shared" si="0"/>
@@ -13027,8 +13021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
